--- a/unmesenger 2.xlsx
+++ b/unmesenger 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonalee\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF92821F-506F-4A96-981D-737ABE82748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF9BFDD-6B14-43C7-A577-119300015020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DA94A4AF-02E5-45E0-8F69-96501AF04502}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>Adress Not Available</t>
+  </si>
+  <si>
+    <t>Address Not Available</t>
   </si>
 </sst>
 </file>
@@ -589,9 +592,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -640,6 +640,9 @@
         <sz val="11"/>
         <color theme="1"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -753,19 +756,19 @@
     <tableColumn id="3" xr3:uid="{149819B4-344B-4038-93E7-AEFCC8C652B1}" name="Age" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{27D06826-89F4-42EE-BDC7-377978A4EB50}" name="Gender" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{CE90EF94-E48F-4DAF-B973-BAA9683A9528}" name="Department" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{C42CEC15-4E01-4E89-962F-B62037196B54}" name="Proper &amp; Replace Dept" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{C42CEC15-4E01-4E89-962F-B62037196B54}" name="Proper &amp; Replace Dept" dataDxfId="7">
       <calculatedColumnFormula>PROPER(Table1[[#This Row],[Department]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A693C93E-A783-42EA-AEE8-BF973F308E40}" name="Email" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{368E5AA5-6A69-428C-9065-B7F830B5F3A1}" name="Extracting Name" dataDxfId="6">
-      <calculatedColumnFormula>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{A693C93E-A783-42EA-AEE8-BF973F308E40}" name="Email" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{368E5AA5-6A69-428C-9065-B7F830B5F3A1}" name="Extracting Name" dataDxfId="5">
+      <calculatedColumnFormula>PROPER(Table1[[#This Row],[Extracting Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{78BC455B-5F1A-49E0-848D-1DF5ED79D841}" name="Phone" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{AFB902E9-B137-473E-99A8-DB83438DF03A}" name="Adding ( 91-) number" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{78BC455B-5F1A-49E0-848D-1DF5ED79D841}" name="Phone" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{AFB902E9-B137-473E-99A8-DB83438DF03A}" name="Adding ( 91-) number" dataDxfId="3">
       <calculatedColumnFormula>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C6BECD6B-DBBE-4035-BF09-B8BC120106C5}" name="Address" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{5DB500F5-F935-4DF1-94D8-7B99CA2A0008}" name="Salary" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{C6BECD6B-DBBE-4035-BF09-B8BC120106C5}" name="Address" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5DB500F5-F935-4DF1-94D8-7B99CA2A0008}" name="Salary" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1071,7 +1074,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1079,12 +1082,12 @@
     <col min="2" max="2" width="13.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.7265625" customWidth="1"/>
     <col min="5" max="6" width="23.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" customWidth="1"/>
-    <col min="9" max="9" width="28.36328125" customWidth="1"/>
-    <col min="10" max="10" width="24.26953125" customWidth="1"/>
-    <col min="11" max="11" width="38.6328125" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" customWidth="1"/>
+    <col min="7" max="8" width="25.1796875" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" customWidth="1"/>
+    <col min="10" max="10" width="28.36328125" customWidth="1"/>
+    <col min="11" max="11" width="36.54296875" customWidth="1"/>
+    <col min="12" max="12" width="38.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -1148,9 +1151,9 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>john doe</v>
+      <c r="H2" s="2" t="str">
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>John Doe</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -1190,8 +1193,8 @@
         <v>18</v>
       </c>
       <c r="H3" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>jane smith</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Jane Smith</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -1231,8 +1234,8 @@
         <v>23</v>
       </c>
       <c r="H4" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>amit patel</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Amit Patel</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
@@ -1272,8 +1275,8 @@
         <v>28</v>
       </c>
       <c r="H5" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>priya sharma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Priya Sharma</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -1310,15 +1313,15 @@
         <v>31</v>
       </c>
       <c r="H6" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>jane doe</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Jane Doe</v>
       </c>
       <c r="J6" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
         <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L6">
         <v>21918</v>
@@ -1348,8 +1351,8 @@
         <v>34</v>
       </c>
       <c r="H7" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>rakesh kumar</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Rakesh Kumar</v>
       </c>
       <c r="J7" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -1385,6 +1388,10 @@
       <c r="G8" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="H8" s="2" t="str">
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v/>
+      </c>
       <c r="I8" t="s">
         <v>37</v>
       </c>
@@ -1423,8 +1430,8 @@
         <v>40</v>
       </c>
       <c r="H9" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>aman verma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Aman Verma</v>
       </c>
       <c r="I9">
         <f>91-8888888888</f>
@@ -1435,7 +1442,7 @@
         <v>91-8888888797</v>
       </c>
       <c r="K9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L9">
         <v>45450</v>
@@ -1465,8 +1472,8 @@
         <v>42</v>
       </c>
       <c r="H10" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>neha gupta</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Neha Gupta</v>
       </c>
       <c r="I10">
         <f>91-7777777777</f>
@@ -1504,8 +1511,8 @@
         <v>44</v>
       </c>
       <c r="H11" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>naveen sharma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Naveen Sharma</v>
       </c>
       <c r="J11" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -1542,8 +1549,8 @@
         <v>47</v>
       </c>
       <c r="H12" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>vinita kapoor</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Vinita Kapoor</v>
       </c>
       <c r="I12">
         <f>91-6666666666</f>
@@ -1584,8 +1591,8 @@
         <v>50</v>
       </c>
       <c r="H13" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>rajeev kumar</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Rajeev Kumar</v>
       </c>
       <c r="I13">
         <f>91-5555555555</f>
@@ -1622,6 +1629,10 @@
       <c r="G14" t="s">
         <v>159</v>
       </c>
+      <c r="H14" t="str">
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v/>
+      </c>
       <c r="I14">
         <f>91-7777777777</f>
         <v>-7777777686</v>
@@ -1661,8 +1672,8 @@
         <v>56</v>
       </c>
       <c r="H15" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>swati singh</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Swati Singh</v>
       </c>
       <c r="J15" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -1696,8 +1707,8 @@
         <v>59</v>
       </c>
       <c r="H16" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>kavita sharma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Kavita Sharma</v>
       </c>
       <c r="I16">
         <f>91-8888888888</f>
@@ -1708,7 +1719,7 @@
         <v>91-8888888797</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L16">
         <v>49400</v>
@@ -1738,8 +1749,8 @@
         <v>62</v>
       </c>
       <c r="H17" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>manish patel</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Manish Patel</v>
       </c>
       <c r="I17">
         <f>91-1234567890</f>
@@ -1780,8 +1791,8 @@
         <v>66</v>
       </c>
       <c r="H18" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>priyanka jain</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Priyanka Jain</v>
       </c>
       <c r="I18">
         <f>91-8765432109</f>
@@ -1822,8 +1833,8 @@
         <v>68</v>
       </c>
       <c r="H19" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>rohit sharma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Rohit Sharma</v>
       </c>
       <c r="I19">
         <f>91-9876543210</f>
@@ -1864,8 +1875,8 @@
         <v>71</v>
       </c>
       <c r="H20" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>deepika singh</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Deepika Singh</v>
       </c>
       <c r="I20">
         <f>91-5555555555</f>
@@ -1903,8 +1914,8 @@
         <v>73</v>
       </c>
       <c r="H21" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>vikas joshi</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Vikas Joshi</v>
       </c>
       <c r="I21">
         <f>91-9999999999</f>
@@ -1915,7 +1926,7 @@
         <v>91-9999999908</v>
       </c>
       <c r="K21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L21">
         <v>2857</v>
@@ -1945,8 +1956,8 @@
         <v>75</v>
       </c>
       <c r="H22" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>nisha verma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Nisha Verma</v>
       </c>
       <c r="J22" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -1983,8 +1994,8 @@
         <v>78</v>
       </c>
       <c r="H23" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>manoj kumar</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Manoj Kumar</v>
       </c>
       <c r="I23">
         <f>91-8888888888</f>
@@ -2021,6 +2032,10 @@
       <c r="G24" t="s">
         <v>159</v>
       </c>
+      <c r="H24" t="str">
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v/>
+      </c>
       <c r="I24">
         <f>91-7777777777</f>
         <v>-7777777686</v>
@@ -2060,8 +2075,8 @@
         <v>82</v>
       </c>
       <c r="H25" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>sanjay gupta</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Sanjay Gupta</v>
       </c>
       <c r="I25" t="s">
         <v>83</v>
@@ -2101,8 +2116,8 @@
         <v>85</v>
       </c>
       <c r="H26" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>anjali sharma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Anjali Sharma</v>
       </c>
       <c r="I26">
         <f>91-5555555555</f>
@@ -2143,8 +2158,8 @@
         <v>88</v>
       </c>
       <c r="H27" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>akash patel</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Akash Patel</v>
       </c>
       <c r="J27" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -2181,8 +2196,8 @@
         <v>91</v>
       </c>
       <c r="H28" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>preeti singh</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Preeti Singh</v>
       </c>
       <c r="I28">
         <f>91-7777777777</f>
@@ -2223,8 +2238,8 @@
         <v>94</v>
       </c>
       <c r="H29" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>ravi kumar</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Ravi Kumar</v>
       </c>
       <c r="I29">
         <f>91-8888888888</f>
@@ -2265,8 +2280,8 @@
         <v>97</v>
       </c>
       <c r="H30" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>swati mishra</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Swati Mishra</v>
       </c>
       <c r="I30">
         <f>91-7777777777</f>
@@ -2304,8 +2319,8 @@
         <v>99</v>
       </c>
       <c r="H31" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>ankit singh</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Ankit Singh</v>
       </c>
       <c r="J31" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -2342,8 +2357,8 @@
         <v>101</v>
       </c>
       <c r="H32" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>neha gupta</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Neha Gupta</v>
       </c>
       <c r="I32">
         <f>91-5555555555</f>
@@ -2354,7 +2369,7 @@
         <v>91-5555555464</v>
       </c>
       <c r="K32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L32">
         <v>41841</v>
@@ -2384,8 +2399,8 @@
         <v>103</v>
       </c>
       <c r="H33" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>rajeev sharma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Rajeev Sharma</v>
       </c>
       <c r="J33" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -2419,8 +2434,8 @@
         <v>105</v>
       </c>
       <c r="H34" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>sarika patel</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Sarika Patel</v>
       </c>
       <c r="I34">
         <f>91-6666666666</f>
@@ -2461,8 +2476,8 @@
         <v>108</v>
       </c>
       <c r="H35" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>vinay singh</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Vinay Singh</v>
       </c>
       <c r="J35" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -2499,8 +2514,8 @@
         <v>111</v>
       </c>
       <c r="H36" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>priya gupta</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Priya Gupta</v>
       </c>
       <c r="I36">
         <f>91-5555555555</f>
@@ -2541,8 +2556,8 @@
         <v>114</v>
       </c>
       <c r="H37" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>sushant patel</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Sushant Patel</v>
       </c>
       <c r="I37">
         <f>91-7777777777</f>
@@ -2580,8 +2595,8 @@
         <v>116</v>
       </c>
       <c r="H38" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>payal sharma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Payal Sharma</v>
       </c>
       <c r="J38" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -2618,8 +2633,8 @@
         <v>120</v>
       </c>
       <c r="H39" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>mohit verma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Mohit Verma</v>
       </c>
       <c r="I39">
         <f>91-8888888888</f>
@@ -2660,8 +2675,8 @@
         <v>124</v>
       </c>
       <c r="H40" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>kavita singh</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Kavita Singh</v>
       </c>
       <c r="I40">
         <f>91-9999999999</f>
@@ -2702,8 +2717,8 @@
         <v>128</v>
       </c>
       <c r="H41" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>ankit patel</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Ankit Patel</v>
       </c>
       <c r="J41" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -2740,8 +2755,8 @@
         <v>131</v>
       </c>
       <c r="H42" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>pooja mishra</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Pooja Mishra</v>
       </c>
       <c r="I42">
         <f>91-7777777777</f>
@@ -2782,8 +2797,8 @@
         <v>134</v>
       </c>
       <c r="H43" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>mohan kumar</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Mohan Kumar</v>
       </c>
       <c r="J43" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -2820,8 +2835,8 @@
         <v>137</v>
       </c>
       <c r="H44" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>anjali gupta</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Anjali Gupta</v>
       </c>
       <c r="I44">
         <f>91-5555555555</f>
@@ -2859,8 +2874,8 @@
         <v>139</v>
       </c>
       <c r="H45" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>mukesh sharma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Mukesh Sharma</v>
       </c>
       <c r="J45" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -2897,8 +2912,8 @@
         <v>142</v>
       </c>
       <c r="H46" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>arjun singh</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Arjun Singh</v>
       </c>
       <c r="I46">
         <f>91-8888888888</f>
@@ -2909,7 +2924,7 @@
         <v>91-8888888797</v>
       </c>
       <c r="K46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L46">
         <v>3108</v>
@@ -2939,8 +2954,8 @@
         <v>144</v>
       </c>
       <c r="H47" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>divya patel</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Divya Patel</v>
       </c>
       <c r="I47">
         <f>91-7777777777</f>
@@ -2978,8 +2993,8 @@
         <v>146</v>
       </c>
       <c r="H48" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>gaurav kumar</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Gaurav Kumar</v>
       </c>
       <c r="J48" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -3016,8 +3031,8 @@
         <v>149</v>
       </c>
       <c r="H49" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>aditi shah</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Aditi Shah</v>
       </c>
       <c r="I49">
         <f>91-6666666666</f>
@@ -3058,8 +3073,8 @@
         <v>152</v>
       </c>
       <c r="H50" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>sandeep singh</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Sandeep Singh</v>
       </c>
       <c r="I50">
         <f>91-5555555555</f>
@@ -3100,8 +3115,8 @@
         <v>155</v>
       </c>
       <c r="H51" t="str">
-        <f>SUBSTITUTE(LEFT(Table1[[#This Row],[Email]],FIND("@",Table1[[#This Row],[Email]],1)-1),"."," ")</f>
-        <v>shalini sharma</v>
+        <f ca="1">PROPER(Table1[[#This Row],[Extracting Name]])</f>
+        <v>Shalini Sharma</v>
       </c>
       <c r="J51" t="str">
         <f>IF(LEFT(Table1[[#This Row],[Phone]],3)="91-",Table1[[#This Row],[Phone]],_xlfn.CONCAT("91",Table1[[#This Row],[Phone]]))</f>
@@ -3115,7 +3130,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="M52:M1048576 L1:L51">
     <cfRule type="top10" dxfId="0" priority="1" rank="10"/>
   </conditionalFormatting>
   <hyperlinks>
